--- a/test/krambo_test/output_data.xlsx
+++ b/test/krambo_test/output_data.xlsx
@@ -690,7 +690,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>&lt;docx.table.Table object at 0x000002D20B6B13A0&gt;</t>
+          <t>&lt;docx.table.Table object at 0x000001DFE33E8E90&gt;</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -722,7 +722,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>&lt;docx.table.Table object at 0x000002D21BEDB2C0&gt;</t>
+          <t>&lt;docx.table.Table object at 0x000001DFE4C96510&gt;</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -771,7 +771,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>&lt;docx.table.Table object at 0x000002D21A652F00&gt;</t>
+          <t>&lt;docx.table.Table object at 0x000001DFD3EC1AC0&gt;</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1262,7 +1262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1273,70 +1273,506 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>string_value</t>
+          <t>table_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>table_id</t>
+          <t>cell_data</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>para_text</t>
+          <t>row_index</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>style</t>
+          <t>cell_index</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cell_content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>&lt;docx.table.Table object at 0x000002D20B6B13A0&gt;</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Novalue</t>
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Конструкция</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>&lt;docx.table.Table object at 0x000002D21BEDB2C0&gt;</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Novalue</t>
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>С фильтрующим элементом С104-F21/1 (бронза)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Присоединение</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>G 1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>&lt;docx.table.Table object at 0x000002D21A652F00&gt;</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Novalue</t>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Рабочая температура</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>от минус 5°С до плюс 50°С
+(при отрицательных температурах воздух должен быть осушенным)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Класс очистки воздуха на выходе фильтра-регулятора
+по  DIN ISO 8573-1:2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.8.4 – фильтр 5мкм.
+Влажность подаваемого сжатого воздуха должна быть с точкой выпадения росы на 10 градусов ниже рабочей температуры в пневмосистеме.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Давление на входе, МПА (бар)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0-1,6 (0-16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Давление на выходе (рабочее давление), МПА (бар)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0,05-1,0 (0,5-10) </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Максимальный нелетучий остаток загрязнения, мг/м2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>550 в соответствии с ASTM G93-3 level E</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Объем стакана, см 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11 – размер стакана 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Направление потока воздуха</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Слева на право</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Материалы: корпус – никелированная латунь, регулировочная пружина – нержавеющая сталь, уплотнения – EPDM, стакан, механический регулятор – технополимер, регулировочный винт – латунь. 
+Смазка – GRASSO UNIFLOR 8512S-FG.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Материалы: корпус – никелированная латунь, регулировочная пружина – нержавеющая сталь, уплотнения – EPDM, стакан, механический регулятор – технополимер, регулировочный винт – латунь. 
+Смазка – GRASSO UNIFLOR 8512S-FG.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>– Паспорт, шт.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Приемку произвел _____________________________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>"____" _______________ 20___г.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>"____" _______________ 20___г.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   (подпись)                (фамилия)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>(дата, печать ОТК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>(дата, печать ОТК)</t>
         </is>
       </c>
     </row>
